--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/073_CsvToWorkbookWithChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/073_CsvToWorkbookWithChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="Reccb361c9ffe460a"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="R4aa05b83fbfc451d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="Rda977a5ac8554dc0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="Rcf019c672c7846f5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -235,7 +235,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcc2ae8a51d904fe5"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd932f53b9a884da6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1984,6 +1984,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rcae6e119f41b4799"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R23326d073ac642c0"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/073_CsvToWorkbookWithChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/073_CsvToWorkbookWithChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="Rda977a5ac8554dc0"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="Rcf019c672c7846f5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="R98d39978b6ec4ac9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="R7ad05f0269324cf3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -235,7 +235,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd932f53b9a884da6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R87a6f0445d1d4b98"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1984,6 +1984,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R23326d073ac642c0"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rea967253d36942fb"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/073_CsvToWorkbookWithChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/073_CsvToWorkbookWithChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="R98d39978b6ec4ac9"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="R7ad05f0269324cf3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="Rf3f2cb0a1b574d34"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="Rf6d99852a34d465e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -235,7 +235,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R87a6f0445d1d4b98"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8a695e666e4147fa"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1984,6 +1984,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rea967253d36942fb"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4b3fddd8e6cb4067"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/073_CsvToWorkbookWithChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/073_CsvToWorkbookWithChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="Rf3f2cb0a1b574d34"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="Rf6d99852a34d465e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="R6c6aae47b34b4e6e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="Rb6f9cc1addba4bef"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -235,7 +235,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8a695e666e4147fa"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra76437d70ce74a10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1984,6 +1984,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4b3fddd8e6cb4067"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R450969653ed64423"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/073_CsvToWorkbookWithChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/073_CsvToWorkbookWithChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="R6c6aae47b34b4e6e"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="Rb6f9cc1addba4bef"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="Rfcdd03c0e3d542c8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="Rff2521a4ec9c4bb4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -235,7 +235,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra76437d70ce74a10"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R98788b26ebb94662"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1984,6 +1984,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R450969653ed64423"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3246836d6a7d434d"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/073_CsvToWorkbookWithChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/073_CsvToWorkbookWithChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="Rfcdd03c0e3d542c8"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="Rff2521a4ec9c4bb4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="R7f415bcc7a5e47e4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="Rbd00867932c24d54"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -235,7 +235,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R98788b26ebb94662"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb135d406a4754cba"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1984,6 +1984,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3246836d6a7d434d"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd518c0cb7fe749b5"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/073_CsvToWorkbookWithChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/073_CsvToWorkbookWithChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="R7f415bcc7a5e47e4"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="Rbd00867932c24d54"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="Rc7e35affdde644d1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="R76379638bacb44a3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -235,7 +235,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb135d406a4754cba"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5d65f8d86b914a7f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1984,6 +1984,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd518c0cb7fe749b5"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0639cb0e132e4f00"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/073_CsvToWorkbookWithChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/073_CsvToWorkbookWithChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="Rc7e35affdde644d1"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="R76379638bacb44a3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="Rf07f1b0c35484a27"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="Rae899a4eefc04316"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -235,7 +235,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5d65f8d86b914a7f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R97ba66208fb342f1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1984,6 +1984,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0639cb0e132e4f00"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd376729bd6724afa"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/073_CsvToWorkbookWithChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/073_CsvToWorkbookWithChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="Rf07f1b0c35484a27"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="Rae899a4eefc04316"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="R6b70f0e4473a4ab9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="R78237539481946f6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -235,7 +235,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R97ba66208fb342f1"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5d1ed617d5914ab0"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1984,6 +1984,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd376729bd6724afa"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R68db7a0f075f4a19"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/073_CsvToWorkbookWithChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/073_CsvToWorkbookWithChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="R6b70f0e4473a4ab9"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="R78237539481946f6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="Rdac5a439eece4ec9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="R54de68f23bf243fc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -235,7 +235,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5d1ed617d5914ab0"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0ed0ac3b21dc47c5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1984,6 +1984,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R68db7a0f075f4a19"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Red9b53822fd244e7"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/073_CsvToWorkbookWithChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/073_CsvToWorkbookWithChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="Rdac5a439eece4ec9"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="R54de68f23bf243fc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="R3ea844d8b40f4e18"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="R176ab98aedb7460d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -31,17 +31,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -235,7 +235,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0ed0ac3b21dc47c5"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf5cf3b001f3e4930"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1984,6 +1984,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Red9b53822fd244e7"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R488336e944e84eba"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/073_CsvToWorkbookWithChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/073_CsvToWorkbookWithChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="R3ea844d8b40f4e18"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="R176ab98aedb7460d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="R151e1e18919c4071"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="R68d8f7814d114ada"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -31,17 +31,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -235,7 +235,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf5cf3b001f3e4930"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R42a7bf48c5614fcd"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1984,6 +1984,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R488336e944e84eba"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8ba83a542c7e44b9"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/073_CsvToWorkbookWithChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/073_CsvToWorkbookWithChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="R151e1e18919c4071"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="R68d8f7814d114ada"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Raw Data" sheetId="1" r:id="R59f9a14cdbe340bc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amount Trend" sheetId="2" r:id="Rfed5e187b8c347ba"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -235,7 +235,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R42a7bf48c5614fcd"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf4f637fdf75740f8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1984,6 +1984,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8ba83a542c7e44b9"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra959cb9905fb4251"/>
 </x:worksheet>
 </file>